--- a/1спринт/2часть/Филипчик_КЭ_часть2.xlsx
+++ b/1спринт/2часть/Филипчик_КЭ_часть2.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yandex.Student\Y.Routes\1спринт\2часть\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A211035-830B-4965-8FCD-FE1E07C2C3D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,19 +27,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
-    <t xml:space="preserve">Объект тестирования</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Критерий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Название класса</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тип класса</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Границы</t>
+    <t>Объект тестирования</t>
+  </si>
+  <si>
+    <t>Критерий</t>
+  </si>
+  <si>
+    <t>Название класса</t>
+  </si>
+  <si>
+    <t>Тип класса</t>
+  </si>
+  <si>
+    <t>Границы</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -45,25 +50,25 @@
 Тестовые данные на границах (содержимое поля)</t>
   </si>
   <si>
-    <t xml:space="preserve">Комментарий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Логика расчета стоимости и времени поездки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Скорость (зависиот от времени начала поездки)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">диапазон</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.01 - 08.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.40</t>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Логика расчета стоимости и времени поездки</t>
+  </si>
+  <si>
+    <t>Скорость (зависиот от времени начала поездки)</t>
+  </si>
+  <si>
+    <t>ночь</t>
+  </si>
+  <si>
+    <t>диапазон</t>
+  </si>
+  <si>
+    <t>22.01 - 08.00</t>
+  </si>
+  <si>
+    <t>22.40</t>
   </si>
   <si>
     <r>
@@ -73,7 +78,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">22.01,</t>
+      <t>22.01,</t>
     </r>
     <r>
       <rPr>
@@ -92,7 +97,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">, 22.02, 07.59, 08.00,</t>
+      <t>, 22.02, 07.59, 08.00,</t>
     </r>
     <r>
       <rPr>
@@ -106,13 +111,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">утро</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08.01- 12.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.03</t>
+    <t>утро</t>
+  </si>
+  <si>
+    <t>08.01- 12.00</t>
+  </si>
+  <si>
+    <t>10.03</t>
   </si>
   <si>
     <r>
@@ -123,7 +128,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">08.00,</t>
+      <t>08.00,</t>
     </r>
     <r>
       <rPr>
@@ -132,7 +137,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">08.01,08.02,11.59,12.00,</t>
+      <t>08.01,08.02,11.59,12.00,</t>
     </r>
     <r>
       <rPr>
@@ -142,17 +147,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">12.01</t>
+      <t>12.01</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">день</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.01-18.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.40</t>
+    <t>день</t>
+  </si>
+  <si>
+    <t>12.01-18.00</t>
+  </si>
+  <si>
+    <t>14.40</t>
   </si>
   <si>
     <r>
@@ -163,7 +168,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">12.00,</t>
+      <t>12.00,</t>
     </r>
     <r>
       <rPr>
@@ -172,7 +177,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">12.01,12.02,17.59,18.00,</t>
+      <t>12.01,12.02,17.59,18.00,</t>
     </r>
     <r>
       <rPr>
@@ -182,17 +187,17 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">18.01</t>
+      <t>18.01</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">вечер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.01-22.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.08</t>
+    <t>вечер</t>
+  </si>
+  <si>
+    <t>18.01-22.00</t>
+  </si>
+  <si>
+    <t>20.08</t>
   </si>
   <si>
     <r>
@@ -203,7 +208,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">18.00,</t>
+      <t>18.00,</t>
     </r>
     <r>
       <rPr>
@@ -212,7 +217,7 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">18.01,18.02,21.59,22.00,</t>
+      <t>18.01,18.02,21.59,22.00,</t>
     </r>
     <r>
       <rPr>
@@ -222,129 +227,104 @@
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">22.01</t>
+      <t>22.01</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">22.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">набор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Данные КЭ были выделены отдельно для того, чтобы проверить, что при вызове такси во время окончания одного из интервалов, стоимость поездки будет расчитываться по интервалу в котором оно было вызывано, а не по следующему. Тестовыми данными для адресов в тест-кейсах выделю самую длинную поездку: 
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>набор</t>
+  </si>
+  <si>
+    <t>Данные КЭ были выделены отдельно для того, чтобы проверить, что при вызове такси во время окончания одного из интервалов, стоимость поездки будет расчитываться по интервалу в котором оно было вызывано, а не по следующему. Тестовыми данными для адресов в тест-кейсах выделю самую длинную поездку: 
 пункт А: Фрунзенская набережная, 46
 пункт Б: Зубовский бульвар, 37</t>
   </si>
   <si>
-    <t xml:space="preserve">08.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Расстояние</t>
-  </si>
-  <si>
-    <t xml:space="preserve">из пункта А в пункт Б</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пункт А: Усачева 3 пункт Б: Комсомольский проспект, 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чтобы убедиться, что для типов маршрутов: а) маршруты у которых стоимость будет одинаковая туда и обратно б) маршруты у которых расстоение туда и обратно разное правильно выбиралось это самое расстояние и считалось стоимость, в тест-кейсах по этим КЭ ожидаемым результатом будет правильная стоимость и время поездки согласно таблицам.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">из пункта Б в пункт А (расстояние по матрице одинаковое)</t>
+    <t>08.00</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>Расстояние</t>
+  </si>
+  <si>
+    <t>из пункта А в пункт Б</t>
+  </si>
+  <si>
+    <t>пункт А: Усачева 3 пункт Б: Комсомольский проспект, 18</t>
+  </si>
+  <si>
+    <t>Чтобы убедиться, что для типов маршрутов: а) маршруты у которых стоимость будет одинаковая туда и обратно б) маршруты у которых расстоение туда и обратно разное правильно выбиралось это самое расстояние и считалось стоимость, в тест-кейсах по этим КЭ ожидаемым результатом будет правильная стоимость и время поездки согласно таблицам.</t>
+  </si>
+  <si>
+    <t>из пункта Б в пункт А (расстояние по матрице одинаковое)</t>
   </si>
   <si>
     <t xml:space="preserve">пункт А:Комсомольский проспект, 18  пункт Б: Усачева 3 </t>
   </si>
   <si>
-    <t xml:space="preserve">из пункта А в пункт Б (расстояние в обрантую сторону по матрице разное</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пункт А: м. Пироговская, 25     пункт Б: м. Комсосмольский проспект 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">из пункта Б в пункт А из предыдущего КЭ (расстояние по матрице разное)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пункт А:комсомольский проспект, 18  пункт Б: Пироговская, 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">нулевое расстояние (из пункта А в пункт Б)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пункт А: м. Пироговская, 25     пункт Б: м. Пироговская, 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">валидные значения расстояния</t>
-  </si>
-  <si>
-    <t xml:space="preserve">диапазон-набор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0, 4.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0, 0.89, 3.9, 4.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">необходимо удостовериться, что берутся именно те значения расстояния между точками, которые есть в матрице. Для этого и ввел этот КЭ. Значениями для него является диапазон значений от минимального (т. е. 0) до максимального значения расстояния между двумя точками(4.7 км). Как такового шага нет, поэтому и назвал это как диапазон-набор. Для наглядности: [0, 0.89, 1.2, 1.3, 1.4, 1.5, 1.7, 1.9, 2,2, 2.3, 2.4, 2.6, 2.7, 2.9, 3, 3.2, 3.3, 3.4, 3.5, 3.7, 3.8, 3.9, 4.7]</t>
+    <t>из пункта А в пункт Б (расстояние в обрантую сторону по матрице разное</t>
+  </si>
+  <si>
+    <t>пункт А: м. Пироговская, 25     пункт Б: м. Комсосмольский проспект 18</t>
+  </si>
+  <si>
+    <t>из пункта Б в пункт А из предыдущего КЭ (расстояние по матрице разное)</t>
+  </si>
+  <si>
+    <t>пункт А:комсомольский проспект, 18  пункт Б: Пироговская, 25</t>
+  </si>
+  <si>
+    <t>нулевое расстояние (из пункта А в пункт Б)</t>
+  </si>
+  <si>
+    <t>пункт А: м. Пироговская, 25     пункт Б: м. Пироговская, 25</t>
+  </si>
+  <si>
+    <t>валидные значения расстояния</t>
+  </si>
+  <si>
+    <t>диапазон-набор</t>
+  </si>
+  <si>
+    <t>0, 4.7</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>0, 0.89, 3.9, 4.7</t>
+  </si>
+  <si>
+    <t>необходимо удостовериться, что берутся именно те значения расстояния между точками, которые есть в матрице. Для этого и ввел этот КЭ. Значениями для него является диапазон значений от минимального (т. е. 0) до максимального значения расстояния между двумя точками(4.7 км). Как такового шага нет, поэтому и назвал это как диапазон-набор. Для наглядности: [0, 0.89, 1.2, 1.3, 1.4, 1.5, 1.7, 1.9, 2,2, 2.3, 2.4, 2.6, 2.7, 2.9, 3, 3.2, 3.3, 3.4, 3.5, 3.7, 3.8, 3.9, 4.7]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -397,175 +377,134 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -624,276 +563,584 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="24.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="44.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="48.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="14.43"/>
+    <col min="1" max="2" width="24.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="44.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="48.5546875" style="2" customWidth="1"/>
+    <col min="9" max="1024" width="14.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="151.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" customFormat="false" ht="101.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="12"/>
-      <c r="C4" s="9" t="s">
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13"/>
+      <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="75.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="6"/>
-      <c r="C6" s="12" t="s">
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="6"/>
+    <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
       <c r="C7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="15" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" s="8" customFormat="true" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G7" s="16"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" s="9" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" customFormat="false" ht="85.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G8" s="10"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" customFormat="false" ht="93.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="6" t="s">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="123" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="22"/>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="20"/>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" customFormat="false" ht="91.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="20"/>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="20"/>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" customFormat="false" ht="165" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -902,26 +1149,26 @@
       <c r="E15" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="8" t="s">
         <v>48</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
-      <c r="C16" s="12"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="19"/>
       <c r="E16" s="20"/>
       <c r="F16" s="22"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" s="6" customFormat="true" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -931,7 +1178,7 @@
       <c r="G18" s="20"/>
       <c r="H18" s="22"/>
     </row>
-    <row r="19" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="19"/>
@@ -941,7 +1188,7 @@
       <c r="G19" s="19"/>
       <c r="H19" s="22"/>
     </row>
-    <row r="20" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="19"/>
@@ -951,34 +1198,34 @@
       <c r="G20" s="19"/>
       <c r="H20" s="22"/>
     </row>
-    <row r="21" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="18"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="7"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="25"/>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
-      <c r="C23" s="7"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="25"/>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" customFormat="false" ht="27" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="19"/>
@@ -987,7 +1234,7 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
     </row>
-    <row r="25" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="19"/>
@@ -996,7 +1243,7 @@
       <c r="F25" s="25"/>
       <c r="G25" s="20"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="19"/>
@@ -1005,7 +1252,7 @@
       <c r="F26" s="25"/>
       <c r="G26" s="20"/>
     </row>
-    <row r="27" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="19"/>
@@ -1014,16 +1261,16 @@
       <c r="F27" s="19"/>
       <c r="G27" s="20"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
-      <c r="C28" s="7"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="19"/>
       <c r="E28" s="20"/>
       <c r="F28" s="19"/>
       <c r="G28" s="20"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="19"/>
@@ -1032,7 +1279,7 @@
       <c r="F29" s="19"/>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="19"/>
@@ -1041,7 +1288,7 @@
       <c r="F30" s="19"/>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="19"/>
@@ -1050,16 +1297,16 @@
       <c r="F31" s="19"/>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -1069,7 +1316,7 @@
       <c r="G33" s="20"/>
       <c r="H33" s="22"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="19"/>
@@ -1079,7 +1326,7 @@
       <c r="G34" s="19"/>
       <c r="H34" s="22"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="19"/>
@@ -1089,34 +1336,34 @@
       <c r="G35" s="19"/>
       <c r="H35" s="22"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="19"/>
-      <c r="C36" s="7"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="25"/>
       <c r="G36" s="19"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
-      <c r="C37" s="7"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="25"/>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
-      <c r="C38" s="7"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="25"/>
       <c r="G38" s="19"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="19"/>
@@ -1125,7 +1372,7 @@
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="19"/>
@@ -1134,7 +1381,7 @@
       <c r="F40" s="25"/>
       <c r="G40" s="20"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="19"/>
@@ -1143,7 +1390,7 @@
       <c r="F41" s="25"/>
       <c r="G41" s="20"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="19"/>
@@ -1152,16 +1399,16 @@
       <c r="F42" s="19"/>
       <c r="G42" s="20"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
-      <c r="C43" s="7"/>
+      <c r="C43" s="8"/>
       <c r="D43" s="19"/>
       <c r="E43" s="20"/>
       <c r="F43" s="19"/>
       <c r="G43" s="20"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="19"/>
@@ -1170,7 +1417,7 @@
       <c r="F44" s="19"/>
       <c r="G44" s="20"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="19"/>
@@ -1179,7 +1426,7 @@
       <c r="F45" s="19"/>
       <c r="G45" s="20"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="19"/>
@@ -1188,87 +1435,87 @@
       <c r="F46" s="19"/>
       <c r="G46" s="20"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
       <c r="F57" s="18"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="12"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C58" s="13"/>
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" s="25"/>
       <c r="G58" s="22"/>
       <c r="H58" s="22"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="12"/>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C59" s="13"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" s="26"/>
       <c r="G59" s="22"/>
       <c r="H59" s="22"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="12"/>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C60" s="13"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" s="26"/>
       <c r="G60" s="22"/>
       <c r="H60" s="22"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="12"/>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C61" s="13"/>
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="26"/>
       <c r="G61" s="22"/>
-      <c r="H61" s="12"/>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="12"/>
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C62" s="13"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="26"/>
       <c r="G62" s="22"/>
-      <c r="H62" s="12"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="12"/>
+      <c r="H62" s="13"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C63" s="13"/>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="26"/>
       <c r="G63" s="22"/>
       <c r="H63" s="22"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="12"/>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C64" s="13"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
       <c r="F64" s="26"/>
       <c r="G64" s="22"/>
       <c r="H64" s="22"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="12"/>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="13"/>
       <c r="C65" s="19"/>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="27"/>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C66" s="19"/>
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="24"/>
       <c r="G66" s="22"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C67" s="19"/>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -1280,12 +1527,7 @@
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="H10:H14"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/1спринт/2часть/Филипчик_КЭ_часть2.xlsx
+++ b/1спринт/2часть/Филипчик_КЭ_часть2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yandex.Student\Y.Routes\1спринт\2часть\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A211035-830B-4965-8FCD-FE1E07C2C3D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8511D4EB-FCE9-4EE5-BC41-2B73911BC692}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Объект тестирования</t>
   </si>
@@ -231,9 +231,6 @@
     </r>
   </si>
   <si>
-    <t>22.00</t>
-  </si>
-  <si>
     <t>набор</t>
   </si>
   <si>
@@ -242,15 +239,6 @@
 пункт Б: Зубовский бульвар, 37</t>
   </si>
   <si>
-    <t>08.00</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
     <t>Расстояние</t>
   </si>
   <si>
@@ -303,6 +291,30 @@
   </si>
   <si>
     <t>необходимо удостовериться, что берутся именно те значения расстояния между точками, которые есть в матрице. Для этого и ввел этот КЭ. Значениями для него является диапазон значений от минимального (т. е. 0) до максимального значения расстояния между двумя точками(4.7 км). Как такового шага нет, поэтому и назвал это как диапазон-набор. Для наглядности: [0, 0.89, 1.2, 1.3, 1.4, 1.5, 1.7, 1.9, 2,2, 2.3, 2.4, 2.6, 2.7, 2.9, 3, 3.2, 3.3, 3.4, 3.5, 3.7, 3.8, 3.9, 4.7]</t>
+  </si>
+  <si>
+    <t>Поездка начавшаяся ночью, закончившаяся утром</t>
+  </si>
+  <si>
+    <t>Поездка начавшаяся утром, закончившаяся днем</t>
+  </si>
+  <si>
+    <t>Поездка начавшаяся днем, закончившаяся вечером</t>
+  </si>
+  <si>
+    <t>Поездка начавшаяся вечером, закончившаяся ночью</t>
+  </si>
+  <si>
+    <t>21.56</t>
+  </si>
+  <si>
+    <t>17.57</t>
+  </si>
+  <si>
+    <t>07.58</t>
+  </si>
+  <si>
+    <t>11.55</t>
   </si>
 </sst>
 </file>
@@ -376,7 +388,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -399,105 +411,89 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,644 +879,644 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="44.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="48.5546875" style="2" customWidth="1"/>
-    <col min="9" max="1024" width="14.44140625" style="2"/>
+    <col min="1" max="2" width="24.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="48.5546875" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="13" t="s">
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="16" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="1" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:8" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="1:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="18" t="s">
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="19" t="s">
+      <c r="H10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+    </row>
+    <row r="11" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="D11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="13" t="s">
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="D12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="13" t="s">
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="13" t="s">
+      <c r="D13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="13" t="s">
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="13" t="s">
+      <c r="D14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="7" t="s">
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="13" t="s">
+      <c r="D15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="13" t="s">
+      <c r="E15" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="13" t="s">
+      <c r="F15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="22"/>
-      <c r="C15" s="8" t="s">
+      <c r="G15" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="H15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="16" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="22"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="18"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="22"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="22"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="22"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="8"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="19"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="19"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:8" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="20"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="20"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="20"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="8"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="22"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="22"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="22"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="19"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="19"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="19"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="20"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="20"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="20"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="20"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="20"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="20"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="20"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C58" s="13"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C59" s="13"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="13"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="13"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="13"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="13"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="13"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="9"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="13"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C64" s="13"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="13"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="27"/>
-      <c r="H65" s="8"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="23"/>
+      <c r="H65" s="4"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="22"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="18"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="22"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/1спринт/2часть/Филипчик_КЭ_часть2.xlsx
+++ b/1спринт/2часть/Филипчик_КЭ_часть2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yandex.Student\Y.Routes\1спринт\2часть\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\Y.Routes\1спринт\2часть\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8511D4EB-FCE9-4EE5-BC41-2B73911BC692}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20DCBA0-3E5F-426B-8557-3977C828352C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -486,13 +486,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -879,27 +879,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="24.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="48.5546875" style="1" customWidth="1"/>
-    <col min="9" max="1024" width="14.44140625" style="1"/>
+    <col min="1" max="2" width="24.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="48.5703125" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -917,11 +917,11 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -945,7 +945,7 @@
       </c>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
         <v>15</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="9"/>
       <c r="C4" s="6" t="s">
         <v>19</v>
@@ -983,7 +983,7 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
         <v>23</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="46.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="9" t="s">
         <v>47</v>
@@ -1015,11 +1015,11 @@
         <v>53</v>
       </c>
       <c r="G6" s="12"/>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" s="13" t="s">
         <v>48</v>
@@ -1032,9 +1032,9 @@
         <v>54</v>
       </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" s="5" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="14" t="s">
         <v>49</v>
       </c>
@@ -1045,9 +1045,9 @@
         <v>52</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
         <v>50</v>
       </c>
@@ -1058,9 +1058,9 @@
       <c r="F9" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="1:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1074,11 +1074,11 @@
       <c r="F10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="18"/>
       <c r="C11" s="9" t="s">
         <v>33</v>
@@ -1090,9 +1090,9 @@
       <c r="F11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="1:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="18"/>
       <c r="C12" s="9" t="s">
         <v>35</v>
@@ -1104,9 +1104,9 @@
       <c r="F12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="18"/>
       <c r="C13" s="3" t="s">
         <v>37</v>
@@ -1118,9 +1118,9 @@
       <c r="F13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="18"/>
       <c r="C14" s="9" t="s">
         <v>39</v>
@@ -1132,9 +1132,9 @@
       <c r="F14" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="1:8" ht="192.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" ht="192.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="18"/>
       <c r="C15" s="4" t="s">
         <v>41</v>
@@ -1155,7 +1155,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="18"/>
       <c r="C16" s="9"/>
       <c r="D16" s="15"/>
@@ -1163,8 +1163,8 @@
       <c r="F16" s="18"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -1174,7 +1174,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="15"/>
@@ -1184,7 +1184,7 @@
       <c r="G19" s="15"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="15"/>
@@ -1194,7 +1194,7 @@
       <c r="G20" s="15"/>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="15"/>
       <c r="C21" s="4"/>
@@ -1203,7 +1203,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="4"/>
@@ -1212,7 +1212,7 @@
       <c r="F22" s="21"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="4"/>
@@ -1221,7 +1221,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:8" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="15"/>
@@ -1230,7 +1230,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="15"/>
@@ -1239,7 +1239,7 @@
       <c r="F25" s="21"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="15"/>
@@ -1248,7 +1248,7 @@
       <c r="F26" s="21"/>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="15"/>
@@ -1257,7 +1257,7 @@
       <c r="F27" s="15"/>
       <c r="G27" s="16"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="4"/>
@@ -1266,7 +1266,7 @@
       <c r="F28" s="15"/>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="15"/>
@@ -1275,7 +1275,7 @@
       <c r="F29" s="15"/>
       <c r="G29" s="16"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="15"/>
@@ -1284,7 +1284,7 @@
       <c r="F30" s="15"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="15"/>
@@ -1293,7 +1293,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="16"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
@@ -1302,7 +1302,7 @@
       <c r="F32" s="16"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -1312,7 +1312,7 @@
       <c r="G33" s="16"/>
       <c r="H33" s="18"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="15"/>
@@ -1322,7 +1322,7 @@
       <c r="G34" s="15"/>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="15"/>
@@ -1332,7 +1332,7 @@
       <c r="G35" s="15"/>
       <c r="H35" s="18"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="15"/>
       <c r="C36" s="4"/>
@@ -1341,7 +1341,7 @@
       <c r="F36" s="21"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="4"/>
@@ -1350,7 +1350,7 @@
       <c r="F37" s="21"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="4"/>
@@ -1359,7 +1359,7 @@
       <c r="F38" s="21"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="15"/>
@@ -1368,7 +1368,7 @@
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="15"/>
@@ -1377,7 +1377,7 @@
       <c r="F40" s="21"/>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="15"/>
@@ -1386,7 +1386,7 @@
       <c r="F41" s="21"/>
       <c r="G41" s="16"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="15"/>
@@ -1395,7 +1395,7 @@
       <c r="F42" s="15"/>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="4"/>
@@ -1404,7 +1404,7 @@
       <c r="F43" s="15"/>
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="15"/>
@@ -1413,7 +1413,7 @@
       <c r="F44" s="15"/>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="15"/>
@@ -1422,7 +1422,7 @@
       <c r="F45" s="15"/>
       <c r="G45" s="16"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="15"/>
@@ -1431,7 +1431,7 @@
       <c r="F46" s="15"/>
       <c r="G46" s="16"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="4"/>
@@ -1440,7 +1440,7 @@
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C58" s="9"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
@@ -1448,7 +1448,7 @@
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C59" s="9"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
@@ -1456,7 +1456,7 @@
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C60" s="9"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
@@ -1464,7 +1464,7 @@
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C61" s="9"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
@@ -1472,7 +1472,7 @@
       <c r="G61" s="18"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C62" s="9"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
@@ -1480,7 +1480,7 @@
       <c r="G62" s="18"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C63" s="9"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
@@ -1488,7 +1488,7 @@
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C64" s="9"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
@@ -1496,7 +1496,7 @@
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="9"/>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -1504,14 +1504,14 @@
       <c r="F65" s="23"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="20"/>
       <c r="G66" s="18"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
